--- a/static/resources/cloudgov_cost_estimator.xlsx
+++ b/static/resources/cloudgov_cost_estimator.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AndrewSuprenant/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brittagustafson/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="460" windowWidth="21060" windowHeight="15620"/>
+    <workbookView xWindow="14060" yWindow="3660" windowWidth="21060" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Estimator" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -64,7 +64,7 @@
           </rPr>
           <t>* The quota you have set
 * $0.0033 per MB of memory required
-* 1000 MB since the quotas are listed in GB
+* 1024 MB since the quotas are listed in GB
 * 365 days per year
 * 1.5 to provide a 50 percent buffer against overages</t>
         </r>
@@ -727,8 +727,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -736,23 +750,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1129,67 +1129,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1201,16 +1201,16 @@
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
@@ -1232,9 +1232,9 @@
         <f>C8*E8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
@@ -1256,9 +1256,9 @@
         <f>C9*E9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
@@ -1280,9 +1280,9 @@
         <f>C10*E10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
@@ -1304,9 +1304,9 @@
         <f>C11*E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
@@ -1323,61 +1323,61 @@
         <f>SUM(F8:F11)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="16"/>
-      <c r="C13" s="49" t="str">
+      <c r="C13" s="51" t="str">
         <f>IF(C8&gt;1,"Multiple prototyping systems can be included in a single package. Unless you are sure you need more, we recommend estimating only one.","")</f>
         <v/>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
     </row>
     <row r="15" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
@@ -1389,16 +1389,16 @@
       <c r="C18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="54"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A19" s="21" t="s">
@@ -1415,9 +1415,9 @@
       <c r="F19" s="10">
         <v>20000</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A20" s="21" t="s">
@@ -1437,9 +1437,9 @@
         <f>C20*5000</f>
         <v>0</v>
       </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
     </row>
     <row r="21" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A21" s="21" t="s">
@@ -1459,9 +1459,9 @@
         <f>C21*15000</f>
         <v>0</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="s">
@@ -1481,9 +1481,9 @@
         <f>C22*24000</f>
         <v>0</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="1:9" ht="56" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="s">
@@ -1503,9 +1503,9 @@
         <f>C23*39000</f>
         <v>0</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" spans="1:9" ht="56" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
@@ -1522,12 +1522,12 @@
         <v>3</v>
       </c>
       <c r="F24" s="10">
-        <f>E24*0.0033*1000*365*1.5</f>
-        <v>5420.2499999999991</v>
+        <f>E24*0.0033*1024*365*1.5</f>
+        <v>5550.3359999999993</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
     </row>
     <row r="25" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="28" t="s">
@@ -1547,35 +1547,35 @@
         <f>IF(C25="",20000,IF(C24="",SUM(F20:F23),SUM(F20:F24)))</f>
         <v>20000</v>
       </c>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
     </row>
     <row r="26" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="16"/>
-      <c r="C26" s="49" t="str">
+      <c r="C26" s="51" t="str">
         <f>IF(C25="","You're currently using our default usage estimate of 16GB. To use a different amount, estimate how many systems you'll need at each level of complexity.",IF(C25=C12,"You've accounted for all the packages you described in step 1!","Make sure the number of packages in Step 1 and Step 2 match! Your usage quota estimate should cover all the packages you plan to purchase."))</f>
         <v>You're currently using our default usage estimate of 16GB. To use a different amount, estimate how many systems you'll need at each level of complexity.</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
     </row>
     <row r="28" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
     </row>
     <row r="29" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="30" t="s">
@@ -1585,11 +1585,11 @@
         <f>CONCATENATE(C12," packages")</f>
         <v>0 packages</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="55">
         <f>F12</f>
         <v>0</v>
       </c>
-      <c r="D29" s="50"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
@@ -1604,37 +1604,37 @@
         <f>CONCATENATE(E25," of memory per month")</f>
         <v>12GB of memory per month</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="56">
         <f>F25</f>
         <v>20000</v>
       </c>
-      <c r="D30" s="51"/>
+      <c r="D30" s="56"/>
     </row>
     <row r="31" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="35"/>
-      <c r="C31" s="52">
+      <c r="C31" s="57">
         <f>SUM(C29:C30)</f>
         <v>20000</v>
       </c>
-      <c r="D31" s="52"/>
+      <c r="D31" s="57"/>
     </row>
     <row r="32" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48" t="s">
+      <c r="B32" s="53"/>
+      <c r="C32" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
     </row>
     <row r="33" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
@@ -1648,38 +1648,38 @@
       <c r="I33" s="37"/>
     </row>
     <row r="34" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
     </row>
     <row r="35" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48" t="s">
+      <c r="B35" s="53"/>
+      <c r="C35" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
     </row>
     <row r="36" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="49"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="38" t="str">
         <f>HYPERLINK("mailto:cloud-gov-inquiries@gsa.gov","cloud-gov-inquiries@gsa.gov")</f>
         <v>cloud-gov-inquiries@gsa.gov</v>
@@ -1687,19 +1687,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I25"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:I35"/>
@@ -1711,6 +1698,19 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="C13">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
